--- a/Supplementary Data.xlsx
+++ b/Supplementary Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sg16979_bristol_ac_uk/Documents/Plesiosaur paper_Communications Biology_revisions/Supplementary Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sg16979_bristol_ac_uk/Documents/Plesiosaur paper_Communications Biology_Final submission/Supplementary Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="13_ncr:1_{047A53E5-2066-FB47-8239-D7A083CAB593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A9DFEF4-9D6D-3247-8B7F-406E33711129}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{047A53E5-2066-FB47-8239-D7A083CAB593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D1348F-9B58-8941-8597-37D802A66C71}"/>
   <bookViews>
-    <workbookView xWindow="-9780" yWindow="-28340" windowWidth="43700" windowHeight="27640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="-27640" windowWidth="27620" windowHeight="27640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1. Plesio-ichthyo-cetacean Drag'!$A$1:$O$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'10. References'!$B$1:$Z$74</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Drag-to-vol_Same volume'!$A$1:$AF$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3. Drag-to-vol_Life-size'!$A$97:$N$165</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Drag-to-vol_Same volume'!$A$1:$AF$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3. Drag-to-vol_Life-size'!$A$97:$AD$165</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4. Sensitivity flow parameters'!$B$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5. Variable NeckLength'!$A$1:$R$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6. NeckThickness-sensit test'!$A$1:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7. Life-size_Neck-trunk effect'!$A$97:$L$145</definedName>
@@ -735,9 +736,6 @@
     <t>TMP 2007.011.0001</t>
   </si>
   <si>
-    <t>Kubo et al., 2012</t>
-  </si>
-  <si>
     <t>Archaeonectrus rostratus</t>
   </si>
   <si>
@@ -789,9 +787,6 @@
     <t>NHMUK 14550</t>
   </si>
   <si>
-    <t>Benson et al., 2012</t>
-  </si>
-  <si>
     <t>Fig. 2</t>
   </si>
   <si>
@@ -804,9 +799,6 @@
     <t>MFSN 27285</t>
   </si>
   <si>
-    <t>Dalla Vecchia, 2006</t>
-  </si>
-  <si>
     <t>Brancasaurus brancai</t>
   </si>
   <si>
@@ -861,9 +853,6 @@
     <t>UW 5485</t>
   </si>
   <si>
-    <t>Storrs, 1991</t>
-  </si>
-  <si>
     <t>Cryptoclidus eurymerus</t>
   </si>
   <si>
@@ -1107,9 +1096,6 @@
     <t>Manemergus anguirostris</t>
   </si>
   <si>
-    <t>Buchy et al., 2005</t>
-  </si>
-  <si>
     <t>Mauriciosaurus fernandesi</t>
   </si>
   <si>
@@ -1125,9 +1111,6 @@
     <t>Meyerasaurus victor</t>
   </si>
   <si>
-    <t>Smith &amp; Vincent 2010; Fraas 1910</t>
-  </si>
-  <si>
     <t>Microcleidus brachypterygius</t>
   </si>
   <si>
@@ -1432,9 +1415,6 @@
   </si>
   <si>
     <t>Sato et al., 2013</t>
-  </si>
-  <si>
-    <t>Image source</t>
   </si>
   <si>
     <t>Bristol cast of NHMUK 2018</t>
@@ -1801,13 +1781,7 @@
     <t>SMNS 51147</t>
   </si>
   <si>
-    <t>Sciau et al., 1990</t>
-  </si>
-  <si>
     <t>Druckenmiller &amp; Russell, 2008</t>
-  </si>
-  <si>
-    <t>Cheng et al., 2006</t>
   </si>
   <si>
     <t>Jiang et al., 2008b</t>
@@ -5681,9 +5655,6 @@
   </si>
   <si>
     <t>Welles, 1943; O'Keefe, 2002</t>
-  </si>
-  <si>
-    <t>Cuchy, 2005; Sachs &amp; Kear, 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Personal observation </t>
@@ -6012,6 +5983,36 @@
   </si>
   <si>
     <t>Sensitivity flow parameters</t>
+  </si>
+  <si>
+    <t>Kubo et al., 2012; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Storrs, 1991; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Benson et al., 2012; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Dalla Vecchia, 2006; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Buchy, 2005; Sachs &amp; Kear, 2017; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Buchy et al., 2005; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Sciau et al., 1990; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Cheng et al., 2006; Soul &amp; Benson, 2017</t>
+  </si>
+  <si>
+    <t>Smith &amp; Vincent 2010; Fraas 1910; personal observation</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -6657,7 +6658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -7347,6 +7348,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="51" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -7355,12 +7376,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="70" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7387,18 +7402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -20335,7 +20338,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="111" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20346,7 +20349,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D5" s="113"/>
     </row>
@@ -20355,10 +20358,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D6" s="113"/>
     </row>
@@ -20370,7 +20373,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -20378,10 +20381,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C8" s="111" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20389,7 +20392,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C9" s="111" t="s">
         <v>136</v>
@@ -20400,10 +20403,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -20411,10 +20414,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -20422,15 +20425,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20442,7 +20445,7 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K116"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20481,10 +20484,10 @@
         <v>159</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>396</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -20518,19 +20521,19 @@
         <v>3.7234042553191489</v>
       </c>
       <c r="J2" s="249" t="s">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="K2" s="252"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="248" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="268" t="s">
+      <c r="C3" s="249" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="249" t="s">
-        <v>166</v>
       </c>
       <c r="D3" s="341">
         <v>199.6</v>
@@ -20553,19 +20556,19 @@
         <v>0.94142259414225948</v>
       </c>
       <c r="J3" s="249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="252"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="248" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="249" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="341">
         <v>70.63</v>
@@ -20588,21 +20591,21 @@
         <v>0.875</v>
       </c>
       <c r="J4" s="249" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="252" t="s">
         <v>170</v>
-      </c>
-      <c r="K4" s="252" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="248" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="268" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="C5" s="249" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="249" t="s">
-        <v>174</v>
       </c>
       <c r="D5" s="341">
         <v>195.31</v>
@@ -20625,21 +20628,21 @@
         <v>1.5398089171974523</v>
       </c>
       <c r="J5" s="252" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="252" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="252" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="248" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="268" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="249" t="s">
         <v>179</v>
-      </c>
-      <c r="B6" s="268" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="249" t="s">
-        <v>180</v>
       </c>
       <c r="D6" s="341">
         <v>201.3</v>
@@ -20662,21 +20665,21 @@
         <v>1.2660550458715596</v>
       </c>
       <c r="J6" s="249" t="s">
-        <v>181</v>
+        <v>592</v>
       </c>
       <c r="K6" s="252" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="248" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="268" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="249" t="s">
         <v>183</v>
-      </c>
-      <c r="B7" s="268" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="249" t="s">
-        <v>185</v>
       </c>
       <c r="D7" s="341">
         <v>235.39</v>
@@ -20699,19 +20702,19 @@
         <v>0.90816326530612246</v>
       </c>
       <c r="J7" s="249" t="s">
-        <v>186</v>
+        <v>593</v>
       </c>
       <c r="K7" s="252"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="248" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" s="268" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="249" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D8" s="341">
         <v>141.93</v>
@@ -20734,21 +20737,21 @@
         <v>1.8181818181818181</v>
       </c>
       <c r="J8" s="249" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K8" s="252" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="248" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="249" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="341">
         <v>125</v>
@@ -20771,19 +20774,19 @@
         <v>1.8357487922705313</v>
       </c>
       <c r="J9" s="249" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K9" s="252"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B10" s="267" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="246" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="108">
         <v>241.5</v>
@@ -20806,19 +20809,19 @@
         <v>0.86956521739130432</v>
       </c>
       <c r="J10" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="267" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>194</v>
-      </c>
-      <c r="B11" s="267" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>197</v>
       </c>
       <c r="D11" s="108">
         <v>241.5</v>
@@ -20841,16 +20844,16 @@
         <v>0.60970873786407764</v>
       </c>
       <c r="J11" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="248" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="256" t="s">
         <v>103</v>
@@ -20882,13 +20885,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="248" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B13" s="268" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="249" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="341">
         <v>157.30000000000001</v>
@@ -20911,19 +20914,19 @@
         <v>1.25</v>
       </c>
       <c r="J13" s="249" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K13" s="252"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="248" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="268" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="249" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="342">
         <v>248.46</v>
@@ -20946,19 +20949,19 @@
         <v>0.5</v>
       </c>
       <c r="J14" s="249" t="s">
-        <v>205</v>
+        <v>591</v>
       </c>
       <c r="K14" s="252"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="248" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B15" s="268" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="249" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D15" s="343">
         <v>166.07</v>
@@ -20981,19 +20984,19 @@
         <v>1.0909090909090908</v>
       </c>
       <c r="J15" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K15" s="252"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="248" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C16" s="249" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D16" s="341">
         <v>233.5</v>
@@ -21016,21 +21019,21 @@
         <v>0.26448362720403018</v>
       </c>
       <c r="J16" s="249" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K16" s="252" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="248" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B17" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C17" s="249" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D17" s="251">
         <v>246.36</v>
@@ -21053,19 +21056,19 @@
         <v>0.69230769230769229</v>
       </c>
       <c r="J17" s="249" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K17" s="252"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B18" s="267" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C18" s="246" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D18" s="108">
         <v>244.94</v>
@@ -21088,19 +21091,19 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="J18" s="246" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="267" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="246" t="s">
         <v>217</v>
-      </c>
-      <c r="B19" s="267" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="246" t="s">
-        <v>221</v>
       </c>
       <c r="D19" s="108">
         <v>244.94</v>
@@ -21123,16 +21126,16 @@
         <v>0.8904109589041096</v>
       </c>
       <c r="J19" s="246" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="248" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B20" s="268" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" s="256" t="s">
         <v>103</v>
@@ -21164,13 +21167,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="248" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B21" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C21" s="249" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D21" s="341">
         <v>244.94</v>
@@ -21193,19 +21196,19 @@
         <v>1.0853333333333335</v>
       </c>
       <c r="J21" s="249" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K21" s="252"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="248" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B22" s="268" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C22" s="249" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D22" s="341">
         <v>244.94</v>
@@ -21228,7 +21231,7 @@
         <v>0.87179487179487181</v>
       </c>
       <c r="J22" s="249" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K22" s="252"/>
     </row>
@@ -21237,7 +21240,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="267" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C23" s="246" t="s">
         <v>111</v>
@@ -21263,7 +21266,7 @@
         <v>0.55773420479302838</v>
       </c>
       <c r="J23" s="246" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K23" s="34"/>
     </row>
@@ -21272,7 +21275,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="267" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C24" s="246" t="s">
         <v>110</v>
@@ -21298,16 +21301,16 @@
         <v>0.78125</v>
       </c>
       <c r="J24" s="246" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="248" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B25" s="268" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C25" s="256" t="s">
         <v>103</v>
@@ -21339,13 +21342,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="248" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B26" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="249" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D26" s="341">
         <v>81.13</v>
@@ -21368,19 +21371,19 @@
         <v>3.1168224299065419</v>
       </c>
       <c r="J26" s="249" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K26" s="252"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="248" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B27" s="268" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C27" s="249" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D27" s="341">
         <v>201.3</v>
@@ -21403,19 +21406,19 @@
         <v>1.7307692307692308</v>
       </c>
       <c r="J27" s="249" t="s">
-        <v>181</v>
+        <v>592</v>
       </c>
       <c r="K27" s="252"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="248" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C28" s="249" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D28" s="341">
         <v>237</v>
@@ -21438,19 +21441,19 @@
         <v>0.2196969696969697</v>
       </c>
       <c r="J28" s="249" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K28" s="252"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="260" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B29" s="268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="261" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D29" s="341">
         <v>182.7</v>
@@ -21473,19 +21476,19 @@
         <v>0.88669950738916259</v>
       </c>
       <c r="J29" s="261" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K29" s="264"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="248" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B30" s="268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="249" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D30" s="341">
         <v>182.7</v>
@@ -21508,19 +21511,19 @@
         <v>1.5670103092783505</v>
       </c>
       <c r="J30" s="249" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K30" s="252"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="248" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B31" s="268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="249" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D31" s="341">
         <v>182.7</v>
@@ -21543,19 +21546,19 @@
         <v>1.1341463414634145</v>
       </c>
       <c r="J31" s="249" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K31" s="252"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="248" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B32" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C32" s="249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D32" s="341">
         <v>235.39</v>
@@ -21578,19 +21581,19 @@
         <v>0.24912280701754386</v>
       </c>
       <c r="J32" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K32" s="252"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="248" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B33" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C33" s="249" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D33" s="341">
         <v>72.05</v>
@@ -21613,19 +21616,19 @@
         <v>3.1785714285714284</v>
       </c>
       <c r="J33" s="249" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K33" s="252"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="248" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B34" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C34" s="249" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D34" s="341">
         <v>72.05</v>
@@ -21648,21 +21651,21 @@
         <v>1.358974358974359</v>
       </c>
       <c r="J34" s="249" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K34" s="252" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B35" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C35" s="246" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D35" s="108">
         <v>239.1</v>
@@ -21685,19 +21688,19 @@
         <v>1.338709677419355</v>
       </c>
       <c r="J35" s="246" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B36" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D36" s="108">
         <v>239.1</v>
@@ -21720,19 +21723,19 @@
         <v>1.0546737213403881</v>
       </c>
       <c r="J36" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B37" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C37" s="246" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D37" s="108">
         <v>239.1</v>
@@ -21755,16 +21758,16 @@
         <v>1.185546875</v>
       </c>
       <c r="J37" s="246" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="248" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B38" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C38" s="256" t="s">
         <v>103</v>
@@ -21796,10 +21799,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="248" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B39" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C39" s="249" t="s">
         <v>116</v>
@@ -21825,7 +21828,7 @@
         <v>0.59365079365079365</v>
       </c>
       <c r="J39" s="249" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K39" s="252"/>
     </row>
@@ -21834,10 +21837,10 @@
         <v>117</v>
       </c>
       <c r="B40" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="249" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D40" s="341">
         <v>126.3</v>
@@ -21860,21 +21863,21 @@
         <v>0.39292035398230091</v>
       </c>
       <c r="J40" s="249" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K40" s="252" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="248" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B41" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C41" s="249" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D41" s="341">
         <v>239.1</v>
@@ -21897,19 +21900,19 @@
         <v>0.66538461538461546</v>
       </c>
       <c r="J41" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K41" s="252"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="248" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B42" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C42" s="249" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D42" s="341">
         <v>239.1</v>
@@ -21932,21 +21935,21 @@
         <v>0.8113774623406721</v>
       </c>
       <c r="J42" s="249" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K42" s="252" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="248" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B43" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="249" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D43" s="264">
         <v>237</v>
@@ -21969,19 +21972,19 @@
         <v>0.55815330901836102</v>
       </c>
       <c r="J43" s="249" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K43" s="252"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="248" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B44" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="249" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D44" s="341">
         <v>93.9</v>
@@ -22004,19 +22007,19 @@
         <v>2.9629629629629628</v>
       </c>
       <c r="J44" s="249" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="K44" s="252"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="248" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B45" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" s="249" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D45" s="341">
         <v>166.07</v>
@@ -22039,19 +22042,19 @@
         <v>0.40607734806629836</v>
       </c>
       <c r="J45" s="249" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K45" s="252"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="248" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B46" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="249" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D46" s="341">
         <v>201.1</v>
@@ -22074,19 +22077,19 @@
         <v>0.75151515151515158</v>
       </c>
       <c r="J46" s="249" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K46" s="252"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="248" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B47" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="249" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D47" s="341">
         <v>132.9</v>
@@ -22109,19 +22112,19 @@
         <v>0.39067357512953371</v>
       </c>
       <c r="J47" s="249" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K47" s="252"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="248" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B48" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="249" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D48" s="341">
         <v>200.1</v>
@@ -22144,21 +22147,21 @@
         <v>0.81196581196581197</v>
       </c>
       <c r="J48" s="249" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K48" s="252" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="248" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B49" s="268" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C49" s="249" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D49" s="341">
         <v>93.9</v>
@@ -22181,19 +22184,19 @@
         <v>1.0166666666666666</v>
       </c>
       <c r="J49" s="249" t="s">
-        <v>287</v>
+        <v>595</v>
       </c>
       <c r="K49" s="252"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="248" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B50" s="268" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C50" s="249" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D50" s="341">
         <v>94.3</v>
@@ -22216,21 +22219,21 @@
         <v>1.1063829787234043</v>
       </c>
       <c r="J50" s="249" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K50" s="252" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="248" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B51" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="249" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D51" s="341">
         <v>182.7</v>
@@ -22253,19 +22256,19 @@
         <v>0.87378640776699024</v>
       </c>
       <c r="J51" s="249" t="s">
-        <v>293</v>
+        <v>598</v>
       </c>
       <c r="K51" s="252"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B52" s="267" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C52" s="246" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D52" s="108">
         <v>182.7</v>
@@ -22288,19 +22291,19 @@
         <v>2.0720720720720722</v>
       </c>
       <c r="J52" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B53" s="267" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C53" s="246" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D53" s="108">
         <v>182.7</v>
@@ -22323,19 +22326,19 @@
         <v>2.3577981651376145</v>
       </c>
       <c r="J53" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K53" s="34"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B54" s="267" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C54" s="246" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D54" s="108">
         <v>182.7</v>
@@ -22358,16 +22361,16 @@
         <v>2.3204577968526463</v>
       </c>
       <c r="J54" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="248" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B55" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C55" s="256" t="s">
         <v>103</v>
@@ -22399,13 +22402,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="248" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B56" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C56" s="249" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D56" s="341">
         <v>182.7</v>
@@ -22428,19 +22431,19 @@
         <v>1.8827586206896552</v>
       </c>
       <c r="J56" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K56" s="252"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="248" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B57" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C57" s="249" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D57" s="341">
         <v>182.7</v>
@@ -22463,19 +22466,19 @@
         <v>1.5671641791044777</v>
       </c>
       <c r="J57" s="249" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K57" s="252"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="248" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B58" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C58" s="249" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D58" s="341">
         <v>178.24</v>
@@ -22498,19 +22501,19 @@
         <v>2.2545454545454544</v>
       </c>
       <c r="J58" s="249" t="s">
-        <v>473</v>
+        <v>596</v>
       </c>
       <c r="K58" s="252"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="248" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B59" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C59" s="249" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D59" s="341">
         <v>72.05</v>
@@ -22533,19 +22536,19 @@
         <v>1.7350000000000001</v>
       </c>
       <c r="J59" s="249" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K59" s="252"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B60" s="267" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C60" s="246" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D60" s="108">
         <v>166.07</v>
@@ -22568,19 +22571,19 @@
         <v>1.7159090909090908</v>
       </c>
       <c r="J60" s="246" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K60" s="34"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B61" s="267" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C61" s="246" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D61" s="108">
         <v>166.07</v>
@@ -22603,16 +22606,16 @@
         <v>1.4216358764029771</v>
       </c>
       <c r="J61" s="246" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K61" s="34"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="248" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B62" s="268" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C62" s="256" t="s">
         <v>103</v>
@@ -22644,13 +22647,13 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B63" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C63" s="246" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D63" s="108">
         <v>239.7</v>
@@ -22673,19 +22676,19 @@
         <v>0.47924528301886787</v>
       </c>
       <c r="J63" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K63" s="34"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B64" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C64" s="246" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D64" s="108">
         <v>239.7</v>
@@ -22708,16 +22711,16 @@
         <v>0.63793103448275867</v>
       </c>
       <c r="J64" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K64" s="34"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="248" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B65" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C65" s="256" t="s">
         <v>103</v>
@@ -22749,13 +22752,13 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B66" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C66" s="246" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D66" s="108">
         <v>239.7</v>
@@ -22778,19 +22781,19 @@
         <v>0.64197530864197538</v>
       </c>
       <c r="J66" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B67" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C67" s="246" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D67" s="108">
         <v>239.7</v>
@@ -22813,16 +22816,16 @@
         <v>0.83720930232558144</v>
       </c>
       <c r="J67" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="248" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B68" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C68" s="256" t="s">
         <v>103</v>
@@ -22854,13 +22857,13 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B69" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C69" s="246" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D69" s="108">
         <v>239.7</v>
@@ -22883,19 +22886,19 @@
         <v>0.63855421686746983</v>
       </c>
       <c r="J69" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K69" s="34"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B70" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C70" s="246" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D70" s="108">
         <v>239.7</v>
@@ -22918,16 +22921,16 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="J70" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K70" s="34"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="248" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B71" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C71" s="256" t="s">
         <v>103</v>
@@ -22959,13 +22962,13 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="248" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B72" s="268" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C72" s="249" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D72" s="344">
         <v>113</v>
@@ -22988,19 +22991,19 @@
         <v>1.0267857142857142</v>
       </c>
       <c r="J72" s="249" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K72" s="252"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="248" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B73" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C73" s="249" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D73" s="341">
         <v>243.99</v>
@@ -23023,19 +23026,19 @@
         <v>0.65048543689320393</v>
       </c>
       <c r="J73" s="249" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K73" s="252"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="248" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B74" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C74" s="249" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D74" s="341">
         <v>246.36</v>
@@ -23058,19 +23061,19 @@
         <v>0.81481481481481477</v>
       </c>
       <c r="J74" s="249" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K74" s="252"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="248" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B75" s="268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="249" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D75" s="341">
         <v>237</v>
@@ -23093,19 +23096,19 @@
         <v>0.64712643678160919</v>
       </c>
       <c r="J75" s="249" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K75" s="252"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="248" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B76" s="268" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C76" s="254" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D76" s="341">
         <v>244.94</v>
@@ -23128,19 +23131,19 @@
         <v>0.6875</v>
       </c>
       <c r="J76" s="249" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K76" s="252"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="248" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B77" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C77" s="249" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D77" s="341">
         <v>242.57</v>
@@ -23163,19 +23166,19 @@
         <v>0.29508196721311475</v>
       </c>
       <c r="J77" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K77" s="252"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="248" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B78" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="249" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D78" s="343">
         <v>166.07</v>
@@ -23198,19 +23201,19 @@
         <v>0.45925925925925926</v>
       </c>
       <c r="J78" s="249" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K78" s="252"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="248" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B79" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C79" s="249" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D79" s="341">
         <v>246.36</v>
@@ -23233,19 +23236,19 @@
         <v>0.19377652050919375</v>
       </c>
       <c r="J79" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K79" s="252"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="248" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B80" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C80" s="249" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D80" s="341">
         <v>244.94</v>
@@ -23268,19 +23271,19 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="J80" s="249" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K80" s="252"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="248" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B81" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C81" s="249" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D81" s="341">
         <v>182.7</v>
@@ -23303,7 +23306,7 @@
         <v>1.6320754716981132</v>
       </c>
       <c r="J81" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K81" s="252"/>
     </row>
@@ -23312,10 +23315,10 @@
         <v>104</v>
       </c>
       <c r="B82" s="267" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C82" s="246" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D82" s="108">
         <v>195.31</v>
@@ -23338,7 +23341,7 @@
         <v>1.6911764705882353</v>
       </c>
       <c r="J82" s="246" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K82" s="34"/>
     </row>
@@ -23347,10 +23350,10 @@
         <v>104</v>
       </c>
       <c r="B83" s="267" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D83" s="108">
         <v>195.31</v>
@@ -23373,7 +23376,7 @@
         <v>1.3551401869158879</v>
       </c>
       <c r="J83" s="246" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K83" s="34"/>
     </row>
@@ -23382,7 +23385,7 @@
         <v>104</v>
       </c>
       <c r="B84" s="267" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C84" s="246" t="s">
         <v>107</v>
@@ -23408,7 +23411,7 @@
         <v>1.1981981981981982</v>
       </c>
       <c r="J84" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K84" s="34"/>
     </row>
@@ -23417,7 +23420,7 @@
         <v>104</v>
       </c>
       <c r="B85" s="268" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C85" s="256" t="s">
         <v>103</v>
@@ -23452,10 +23455,10 @@
         <v>108</v>
       </c>
       <c r="B86" s="268" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C86" s="249" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D86" s="341">
         <v>195.31</v>
@@ -23478,7 +23481,7 @@
         <v>1.2254335260115607</v>
       </c>
       <c r="J86" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K86" s="252"/>
     </row>
@@ -23487,7 +23490,7 @@
         <v>112</v>
       </c>
       <c r="B87" s="268" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C87" s="249" t="s">
         <v>114</v>
@@ -23513,21 +23516,21 @@
         <v>0.98658247829518542</v>
       </c>
       <c r="J87" s="249" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K87" s="252" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B88" s="267" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D88" s="108">
         <v>233.5</v>
@@ -23550,21 +23553,21 @@
         <v>0.15437498713541775</v>
       </c>
       <c r="J88" s="246" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B89" s="267" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D89" s="108">
         <v>233.5</v>
@@ -23587,18 +23590,18 @@
         <v>0.15999626830861086</v>
       </c>
       <c r="J89" s="246" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="248" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B90" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C90" s="256" t="s">
         <v>103</v>
@@ -23630,13 +23633,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="42" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B91" s="267" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C91" s="246" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D91" s="108">
         <v>217.42</v>
@@ -23659,19 +23662,19 @@
         <v>0.16942148760330578</v>
       </c>
       <c r="J91" s="246" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K91" s="34"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="42" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B92" s="267" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C92" s="246" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D92" s="108">
         <v>217.42</v>
@@ -23694,18 +23697,18 @@
         <v>0.20121951219512194</v>
       </c>
       <c r="J92" s="246" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K92" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="248" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B93" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C93" s="256" t="s">
         <v>103</v>
@@ -23737,13 +23740,13 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="248" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B94" s="268" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C94" s="249" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D94" s="341">
         <v>237</v>
@@ -23766,7 +23769,7 @@
         <v>0.42016806722689076</v>
       </c>
       <c r="J94" s="249" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K94" s="252"/>
     </row>
@@ -23775,7 +23778,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="249" t="s">
         <v>101</v>
@@ -23801,19 +23804,19 @@
         <v>0.84795321637426901</v>
       </c>
       <c r="J95" s="249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K95" s="252"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="248" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B96" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" s="252" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D96" s="341">
         <v>201.1</v>
@@ -23836,7 +23839,7 @@
         <v>1.0656370656370657</v>
       </c>
       <c r="J96" s="249" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K96" s="252"/>
     </row>
@@ -23845,10 +23848,10 @@
         <v>102</v>
       </c>
       <c r="B97" s="268" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="252" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D97" s="341">
         <v>182.7</v>
@@ -23871,19 +23874,19 @@
         <v>0.6097560975609756</v>
       </c>
       <c r="J97" s="249" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K97" s="252"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="248" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B98" s="268" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C98" s="252" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D98" s="344">
         <v>129.4</v>
@@ -23906,19 +23909,19 @@
         <v>0.35429709732498582</v>
       </c>
       <c r="J98" s="249" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K98" s="252"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="248" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B99" s="268" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C99" s="249" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D99" s="341">
         <v>182.7</v>
@@ -23941,19 +23944,19 @@
         <v>1.6071428571428572</v>
       </c>
       <c r="J99" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K99" s="252"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B100" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C100" s="345" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D100" s="111">
         <v>242.57</v>
@@ -23976,19 +23979,19 @@
         <v>0.6225165562913908</v>
       </c>
       <c r="J100" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K100" s="34"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B101" s="267" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C101" s="345" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D101" s="111">
         <v>242.57</v>
@@ -24011,16 +24014,16 @@
         <v>0.61224489795918369</v>
       </c>
       <c r="J101" s="246" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K101" s="34"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="248" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B102" s="268" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C102" s="256" t="s">
         <v>103</v>
@@ -24052,13 +24055,13 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="248" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B103" s="268" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C103" s="249" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D103" s="341">
         <v>233.5</v>
@@ -24081,21 +24084,21 @@
         <v>0.25641025641025639</v>
       </c>
       <c r="J103" s="249" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K103" s="252" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="248" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B104" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C104" s="249" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D104" s="341">
         <v>83.64</v>
@@ -24118,19 +24121,19 @@
         <v>2.7619047619047619</v>
       </c>
       <c r="J104" s="249" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K104" s="252"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B105" s="267" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D105" s="108">
         <v>201.3</v>
@@ -24153,19 +24156,19 @@
         <v>1.5582010582010584</v>
       </c>
       <c r="J105" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K105" s="34"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B106" s="267" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D106" s="108">
         <v>201.3</v>
@@ -24188,16 +24191,16 @@
         <v>1.430232558139535</v>
       </c>
       <c r="J106" s="255" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K106" s="34"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="248" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B107" s="268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C107" s="256" t="s">
         <v>103</v>
@@ -24229,13 +24232,13 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="248" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B108" s="268" t="s">
         <v>161</v>
       </c>
       <c r="C108" s="252" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D108" s="341">
         <v>100.5</v>
@@ -24258,19 +24261,19 @@
         <v>1.9772727272727273</v>
       </c>
       <c r="J108" s="249" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K108" s="252"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="248" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B109" s="268" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C109" s="249" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D109" s="344">
         <v>93.9</v>
@@ -24293,21 +24296,21 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="J109" s="249" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K109" s="252" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="248" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B110" s="268" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C110" s="249" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D110" s="341">
         <v>242</v>
@@ -24330,21 +24333,21 @@
         <v>1.5070921985815604</v>
       </c>
       <c r="J110" s="249" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K110" s="252" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="42" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B111" s="267" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C111" s="246" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D111" s="108">
         <v>244.94</v>
@@ -24367,19 +24370,19 @@
         <v>0.49275362318840576</v>
       </c>
       <c r="J111" s="246" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K111" s="34"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="42" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B112" s="267" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C112" s="246" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D112" s="108">
         <v>244.94</v>
@@ -24402,16 +24405,16 @@
         <v>0.47213114754098362</v>
       </c>
       <c r="J112" s="246" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K112" s="34"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="248" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B113" s="268" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C113" s="256" t="s">
         <v>103</v>
@@ -24443,13 +24446,13 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B114" s="267" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C114" s="246" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D114" s="108">
         <v>237</v>
@@ -24472,19 +24475,19 @@
         <v>1.3811320754716983</v>
       </c>
       <c r="J114" s="246" t="s">
-        <v>475</v>
+        <v>597</v>
       </c>
       <c r="K114" s="34"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B115" s="267" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C115" s="246" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D115" s="108">
         <v>237</v>
@@ -24507,16 +24510,16 @@
         <v>1.5186915887850467</v>
       </c>
       <c r="J115" s="246" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K115" s="34"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="248" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B116" s="268" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C116" s="256" t="s">
         <v>103</v>
@@ -24559,7 +24562,7 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="AC66" sqref="AC66"/>
     </sheetView>
   </sheetViews>
@@ -24570,367 +24573,367 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -24946,8 +24949,8 @@
   </sheetPr>
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O91"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25047,7 +25050,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="17">
-      <c r="A6" s="373" t="s">
+      <c r="A6" s="378" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="31">
@@ -25096,7 +25099,7 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="17">
-      <c r="A7" s="373"/>
+      <c r="A7" s="378"/>
       <c r="B7" s="31">
         <v>10</v>
       </c>
@@ -25162,7 +25165,7 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="17">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="31">
@@ -25211,7 +25214,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="17">
-      <c r="A10" s="372"/>
+      <c r="A10" s="377"/>
       <c r="B10" s="31">
         <v>10</v>
       </c>
@@ -25333,7 +25336,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="373" t="s">
+      <c r="A15" s="378" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="35">
@@ -25381,7 +25384,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="373"/>
+      <c r="A16" s="378"/>
       <c r="B16" s="35">
         <v>10</v>
       </c>
@@ -25444,7 +25447,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="16" customHeight="1">
-      <c r="A18" s="372" t="s">
+      <c r="A18" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="35">
@@ -25492,7 +25495,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="372"/>
+      <c r="A19" s="377"/>
       <c r="B19" s="35">
         <v>10</v>
       </c>
@@ -25595,7 +25598,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="373" t="s">
+      <c r="A24" s="378" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="35">
@@ -25652,7 +25655,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="373"/>
+      <c r="A25" s="378"/>
       <c r="B25" s="35">
         <v>10</v>
       </c>
@@ -25724,7 +25727,7 @@
       <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1">
-      <c r="A27" s="372" t="s">
+      <c r="A27" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="35">
@@ -25781,7 +25784,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="372"/>
+      <c r="A28" s="377"/>
       <c r="B28" s="35">
         <v>10</v>
       </c>
@@ -25906,7 +25909,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="373" t="s">
+      <c r="A33" s="378" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="35">
@@ -25954,7 +25957,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="373"/>
+      <c r="A34" s="378"/>
       <c r="B34" s="35">
         <v>10</v>
       </c>
@@ -26070,7 +26073,7 @@
       <c r="O36" s="28"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="372" t="s">
+      <c r="A37" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="35">
@@ -26118,7 +26121,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="372"/>
+      <c r="A38" s="377"/>
       <c r="B38" s="35">
         <v>10</v>
       </c>
@@ -26271,7 +26274,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="373" t="s">
+      <c r="A43" s="378" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="35">
@@ -26319,7 +26322,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="373"/>
+      <c r="A44" s="378"/>
       <c r="B44" s="35">
         <v>10</v>
       </c>
@@ -26382,7 +26385,7 @@
       <c r="O45" s="28"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="372" t="s">
+      <c r="A46" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="35">
@@ -26430,7 +26433,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="372"/>
+      <c r="A47" s="377"/>
       <c r="B47" s="35">
         <v>10</v>
       </c>
@@ -26530,7 +26533,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="373" t="s">
+      <c r="A51" s="378" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="35">
@@ -26578,7 +26581,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="373"/>
+      <c r="A52" s="378"/>
       <c r="B52" s="35">
         <v>10</v>
       </c>
@@ -26641,7 +26644,7 @@
       <c r="O53" s="28"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="372" t="s">
+      <c r="A54" s="377" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="35">
@@ -26689,7 +26692,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="372"/>
+      <c r="A55" s="377"/>
       <c r="B55" s="35">
         <v>10</v>
       </c>
@@ -26806,11 +26809,11 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="369" t="s">
+      <c r="A60" s="379" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="370"/>
-      <c r="C60" s="371"/>
+      <c r="B60" s="380"/>
+      <c r="C60" s="381"/>
       <c r="D60" s="21">
         <v>1</v>
       </c>
@@ -26845,11 +26848,11 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="369" t="s">
+      <c r="A61" s="379" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="370"/>
-      <c r="C61" s="370"/>
+      <c r="B61" s="380"/>
+      <c r="C61" s="380"/>
       <c r="D61" s="38">
         <v>0.30398929000000002</v>
       </c>
@@ -26888,11 +26891,11 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="369" t="s">
+      <c r="A62" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="370"/>
-      <c r="C62" s="370"/>
+      <c r="B62" s="380"/>
+      <c r="C62" s="380"/>
       <c r="D62" s="38">
         <v>0.46397877999999998</v>
       </c>
@@ -26931,10 +26934,10 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="369"/>
+      <c r="A64" s="379"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="369"/>
+      <c r="A65" s="379"/>
     </row>
     <row r="66" spans="1:15">
       <c r="B66" s="13"/>
@@ -26944,7 +26947,7 @@
     </row>
     <row r="68" spans="1:15" s="23" customFormat="1" ht="19">
       <c r="A68" s="18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -26962,10 +26965,10 @@
       <c r="O68" s="19"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="369"/>
+      <c r="A69" s="379"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="369"/>
+      <c r="A70" s="379"/>
       <c r="B70" s="12" t="s">
         <v>29</v>
       </c>
@@ -26975,34 +26978,34 @@
     </row>
     <row r="71" spans="1:15" ht="60" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B71" s="272" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C71" s="275" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="275" t="s">
+        <v>402</v>
+      </c>
+      <c r="E71" s="272" t="s">
+        <v>541</v>
+      </c>
+      <c r="F71" s="275" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" s="275" t="s">
+        <v>402</v>
+      </c>
+      <c r="H71" s="275" t="s">
+        <v>411</v>
+      </c>
+      <c r="I71" s="275" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="275" t="s">
         <v>410</v>
-      </c>
-      <c r="D71" s="275" t="s">
-        <v>409</v>
-      </c>
-      <c r="E71" s="272" t="s">
-        <v>550</v>
-      </c>
-      <c r="F71" s="275" t="s">
-        <v>410</v>
-      </c>
-      <c r="G71" s="275" t="s">
-        <v>409</v>
-      </c>
-      <c r="H71" s="275" t="s">
-        <v>418</v>
-      </c>
-      <c r="I71" s="275" t="s">
-        <v>416</v>
-      </c>
-      <c r="J71" s="275" t="s">
-        <v>417</v>
       </c>
       <c r="K71" s="275"/>
     </row>
@@ -27296,7 +27299,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="271" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B79" s="274">
         <f>+K35/$O$35</f>
@@ -27501,13 +27504,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B85" s="272"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="276" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B86" s="274">
         <f>+AVERAGE(B72:B74)</f>
@@ -27548,7 +27551,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="276" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B87" s="274">
         <f>+AVERAGE(B73:B75)</f>
@@ -27589,7 +27592,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="276" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B88" s="274">
         <f t="shared" ref="B88:G88" si="24">+AVERAGE(B76:B77)</f>
@@ -27630,7 +27633,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="276" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B89" s="274">
         <f t="shared" ref="B89:G89" si="26">+AVERAGE(B78:B80)</f>
@@ -27671,7 +27674,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="276" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B90" s="274">
         <f>+AVERAGE(B81:B83)</f>
@@ -27718,6 +27721,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A6:A7"/>
@@ -27730,15 +27738,10 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:A70"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -27749,8 +27752,8 @@
   </sheetPr>
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+    <sheetView topLeftCell="A12" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27898,10 +27901,10 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
       <c r="R7"/>
-      <c r="S7" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="T7" s="375"/>
+      <c r="S7" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="T7" s="383"/>
       <c r="U7" s="43" t="s">
         <v>42</v>
       </c>
@@ -27915,10 +27918,10 @@
       <c r="AA7" s="46"/>
       <c r="AB7" s="65"/>
       <c r="AC7"/>
-      <c r="AD7" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE7" s="375"/>
+      <c r="AD7" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE7" s="383"/>
     </row>
     <row r="8" spans="1:32" ht="68">
       <c r="A8" s="66"/>
@@ -27941,7 +27944,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>58</v>
@@ -27956,10 +27959,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N8" s="356" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="O8" s="49" t="s">
         <v>48</v>
@@ -27971,7 +27974,7 @@
         <v>50</v>
       </c>
       <c r="R8" s="304" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="S8" s="305" t="s">
         <v>127</v>
@@ -27992,7 +27995,7 @@
         <v>47</v>
       </c>
       <c r="Y8" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Z8" s="49" t="s">
         <v>48</v>
@@ -28013,7 +28016,7 @@
         <v>52</v>
       </c>
       <c r="AF8" s="40" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="17">
@@ -29577,10 +29580,10 @@
       </c>
       <c r="N26" s="358"/>
       <c r="R26"/>
-      <c r="S26" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="T26" s="375"/>
+      <c r="S26" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="T26" s="383"/>
       <c r="U26" s="43" t="s">
         <v>42</v>
       </c>
@@ -29591,10 +29594,10 @@
         <v>43</v>
       </c>
       <c r="AC26"/>
-      <c r="AD26" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE26" s="375"/>
+      <c r="AD26" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE26" s="383"/>
     </row>
     <row r="27" spans="1:32" ht="68">
       <c r="A27" s="66"/>
@@ -29617,7 +29620,7 @@
         <v>48</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I27" s="51" t="s">
         <v>58</v>
@@ -29632,10 +29635,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N27" s="356" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="O27" s="49" t="s">
         <v>48</v>
@@ -29647,7 +29650,7 @@
         <v>50</v>
       </c>
       <c r="R27" s="304" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="S27" s="305" t="s">
         <v>127</v>
@@ -29668,7 +29671,7 @@
         <v>47</v>
       </c>
       <c r="Y27" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Z27" s="49" t="s">
         <v>48</v>
@@ -29689,7 +29692,7 @@
         <v>52</v>
       </c>
       <c r="AF27" s="40" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -31290,7 +31293,7 @@
     </row>
     <row r="46" spans="1:32" s="23" customFormat="1" ht="19">
       <c r="A46" s="18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -31321,13 +31324,13 @@
     </row>
     <row r="48" spans="1:32" ht="51">
       <c r="A48" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B48" s="349" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C48" s="346" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D48" s="30"/>
       <c r="F48" s="30"/>
@@ -31341,7 +31344,7 @@
     </row>
     <row r="49" spans="1:31">
       <c r="A49" s="276" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B49" s="30">
         <f>+AVERAGE(AF29:AF33)</f>
@@ -31363,7 +31366,7 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50" s="276" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B50" s="30">
         <f>+AVERAGE(AF29:AF31)</f>
@@ -31386,7 +31389,7 @@
     </row>
     <row r="51" spans="1:31">
       <c r="A51" s="276" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B51" s="30">
         <f>+AVERAGE(AF32:AF33)</f>
@@ -31404,7 +31407,7 @@
     </row>
     <row r="52" spans="1:31">
       <c r="A52" s="276" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B52" s="30">
         <f>+AVERAGE(AF34:AF36)</f>
@@ -31422,7 +31425,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="276" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B53" s="30">
         <f>+AVERAGE(AF37:AF39)</f>
@@ -31453,13 +31456,13 @@
     <row r="55" spans="1:31" ht="51">
       <c r="A55" s="13"/>
       <c r="B55" s="348" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C55" s="348" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="T55" s="108"/>
       <c r="U55" s="108"/>
@@ -31470,7 +31473,7 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56" s="276" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B56" s="60">
         <v>0.6472</v>
@@ -31479,7 +31482,7 @@
         <v>1.33E-5</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="T56" s="108"/>
       <c r="U56" s="108"/>
@@ -31490,7 +31493,7 @@
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="276" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B57" s="60">
         <v>0.29859999999999998</v>
@@ -31499,7 +31502,7 @@
         <v>8.0210000000000006E-5</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
@@ -31510,7 +31513,7 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58" s="276" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B58" s="60">
         <v>0.23930000000000001</v>
@@ -31519,7 +31522,7 @@
         <v>0.62970000000000004</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="T58" s="108"/>
       <c r="U58" s="108"/>
@@ -31530,7 +31533,7 @@
     </row>
     <row r="59" spans="1:31">
       <c r="A59" s="276" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B59" s="34">
         <v>0.72040000000000004</v>
@@ -31539,14 +31542,14 @@
         <v>4.6449999999999997E-5</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E59" s="30"/>
       <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60" s="276" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B60" s="34">
         <v>0.14219999999999999</v>
@@ -31555,7 +31558,7 @@
         <v>8.7379999999999999E-4</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G60" s="60"/>
     </row>
@@ -31567,7 +31570,7 @@
     <mergeCell ref="AD26:AE26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="33" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -31578,8 +31581,8 @@
   </sheetPr>
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AF110" sqref="AF110"/>
+    <sheetView topLeftCell="A108" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Y160" sqref="Y160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1"/>
@@ -33333,7 +33336,7 @@
     </row>
     <row r="100" spans="1:31" ht="17" customHeight="1">
       <c r="A100" s="172" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B100" s="44"/>
       <c r="C100" s="34"/>
@@ -33343,17 +33346,17 @@
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
       <c r="I100" s="34"/>
-      <c r="K100" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="L100" s="375"/>
-      <c r="M100" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="N100" s="377"/>
+      <c r="K100" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="L100" s="383"/>
+      <c r="M100" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="N100" s="385"/>
       <c r="O100" s="34"/>
       <c r="Q100" s="172" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="R100" s="44"/>
       <c r="S100" s="34"/>
@@ -33363,14 +33366,14 @@
       <c r="W100" s="43"/>
       <c r="X100" s="44"/>
       <c r="Y100" s="34"/>
-      <c r="AA100" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB100" s="375"/>
-      <c r="AC100" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD100" s="377"/>
+      <c r="AA100" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB100" s="383"/>
+      <c r="AC100" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD100" s="385"/>
     </row>
     <row r="101" spans="1:31" ht="62" customHeight="1">
       <c r="A101" s="34"/>
@@ -33387,7 +33390,7 @@
         <v>48</v>
       </c>
       <c r="F101" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G101" s="279" t="s">
         <v>0</v>
@@ -33399,16 +33402,16 @@
         <v>78</v>
       </c>
       <c r="J101" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K101" s="296" t="s">
         <v>127</v>
       </c>
       <c r="L101" s="297" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M101" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N101" s="281" t="s">
         <v>53</v>
@@ -33428,7 +33431,7 @@
         <v>48</v>
       </c>
       <c r="V101" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="W101" s="279" t="s">
         <v>0</v>
@@ -33440,16 +33443,16 @@
         <v>78</v>
       </c>
       <c r="Z101" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AA101" s="296" t="s">
         <v>127</v>
       </c>
       <c r="AB101" s="297" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AC101" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AD101" s="281" t="s">
         <v>53</v>
@@ -34795,7 +34798,7 @@
     </row>
     <row r="116" spans="1:31" ht="17" customHeight="1">
       <c r="A116" s="172" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B116" s="171"/>
       <c r="C116" s="171"/>
@@ -34812,7 +34815,7 @@
       <c r="N116" s="171"/>
       <c r="O116" s="171"/>
       <c r="Q116" s="172" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="R116" s="171"/>
       <c r="S116" s="171"/>
@@ -34840,14 +34843,14 @@
       <c r="H117" s="170"/>
       <c r="I117" s="170"/>
       <c r="J117" s="171"/>
-      <c r="K117" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="L117" s="375"/>
-      <c r="M117" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="N117" s="377"/>
+      <c r="K117" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="L117" s="383"/>
+      <c r="M117" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="N117" s="385"/>
       <c r="O117" s="171"/>
       <c r="R117" s="172"/>
       <c r="S117" s="172"/>
@@ -34857,14 +34860,14 @@
       <c r="W117" s="171"/>
       <c r="X117" s="172"/>
       <c r="Y117" s="170"/>
-      <c r="AA117" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB117" s="375"/>
-      <c r="AC117" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD117" s="377"/>
+      <c r="AA117" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB117" s="383"/>
+      <c r="AC117" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD117" s="385"/>
       <c r="AE117" s="171"/>
     </row>
     <row r="118" spans="1:31" ht="62" customHeight="1">
@@ -34882,7 +34885,7 @@
         <v>48</v>
       </c>
       <c r="F118" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G118" s="175" t="s">
         <v>0</v>
@@ -34894,7 +34897,7 @@
         <v>78</v>
       </c>
       <c r="J118" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K118" s="285" t="s">
         <v>127</v>
@@ -34903,7 +34906,7 @@
         <v>53</v>
       </c>
       <c r="M118" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N118" s="281" t="s">
         <v>53</v>
@@ -34923,7 +34926,7 @@
         <v>48</v>
       </c>
       <c r="V118" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="W118" s="175" t="s">
         <v>0</v>
@@ -34935,7 +34938,7 @@
         <v>78</v>
       </c>
       <c r="Z118" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AA118" s="285" t="s">
         <v>127</v>
@@ -34944,7 +34947,7 @@
         <v>53</v>
       </c>
       <c r="AC118" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AD118" s="281" t="s">
         <v>53</v>
@@ -35049,7 +35052,7 @@
       <c r="K121" s="288"/>
       <c r="L121" s="289"/>
       <c r="M121" s="302"/>
-      <c r="N121" s="207"/>
+      <c r="N121" s="376"/>
       <c r="O121" s="171"/>
       <c r="Q121" s="286" t="s">
         <v>25</v>
@@ -35111,7 +35114,7 @@
         <f>I122/E122</f>
         <v>4.5671506486439715E-2</v>
       </c>
-      <c r="L122" s="289">
+      <c r="L122" s="375">
         <f>+K122/$K$113</f>
         <v>1.5031028940104518</v>
       </c>
@@ -35119,7 +35122,7 @@
         <f>+I122*1</f>
         <v>10.220000000000001</v>
       </c>
-      <c r="N122" s="207">
+      <c r="N122" s="376">
         <f>+M122/$M$113</f>
         <v>1.2220186527272285</v>
       </c>
@@ -35193,9 +35196,9 @@
       <c r="I123" s="179"/>
       <c r="J123" s="287"/>
       <c r="K123" s="288"/>
-      <c r="L123" s="289"/>
+      <c r="L123" s="375"/>
       <c r="M123" s="302"/>
-      <c r="N123" s="207"/>
+      <c r="N123" s="376"/>
       <c r="O123" s="30"/>
       <c r="Q123" s="286" t="s">
         <v>27</v>
@@ -35226,9 +35229,9 @@
       </c>
       <c r="J124" s="287"/>
       <c r="K124" s="288"/>
-      <c r="L124" s="289"/>
+      <c r="L124" s="375"/>
       <c r="M124" s="302"/>
-      <c r="N124" s="207"/>
+      <c r="N124" s="376"/>
       <c r="O124" s="30"/>
       <c r="Q124" s="286" t="s">
         <v>28</v>
@@ -35284,7 +35287,7 @@
         <f t="shared" ref="K125:K130" si="36">I125/E125</f>
         <v>1.401568642193852E-2</v>
       </c>
-      <c r="L125" s="289">
+      <c r="L125" s="375">
         <f t="shared" ref="L125:L130" si="37">+K125/$K$113</f>
         <v>0.46127269370047541</v>
       </c>
@@ -35292,7 +35295,7 @@
         <f t="shared" ref="M125:M130" si="38">+I125*1</f>
         <v>30.98897487</v>
       </c>
-      <c r="N125" s="207">
+      <c r="N125" s="376">
         <f t="shared" ref="N125:N130" si="39">+M125/$M$113</f>
         <v>3.7053919099838888</v>
       </c>
@@ -35390,7 +35393,7 @@
         <f t="shared" si="36"/>
         <v>5.9367498960862769E-2</v>
       </c>
-      <c r="L126" s="289">
+      <c r="L126" s="375">
         <f t="shared" si="37"/>
         <v>1.9538540845971466</v>
       </c>
@@ -35398,7 +35401,7 @@
         <f t="shared" si="38"/>
         <v>3.4363000000000001</v>
       </c>
-      <c r="N126" s="207">
+      <c r="N126" s="376">
         <f t="shared" si="39"/>
         <v>0.41088284700260036</v>
       </c>
@@ -35496,7 +35499,7 @@
         <f t="shared" si="36"/>
         <v>2.3147005018303031E-2</v>
       </c>
-      <c r="L127" s="289">
+      <c r="L127" s="375">
         <f t="shared" si="37"/>
         <v>0.76179510831366803</v>
       </c>
@@ -35504,7 +35507,7 @@
         <f t="shared" si="38"/>
         <v>17.314596080000001</v>
       </c>
-      <c r="N127" s="207">
+      <c r="N127" s="376">
         <f t="shared" si="39"/>
         <v>2.0703287058901911</v>
       </c>
@@ -35602,7 +35605,7 @@
         <f t="shared" si="36"/>
         <v>9.8904366066984266E-3</v>
       </c>
-      <c r="L128" s="289">
+      <c r="L128" s="375">
         <f t="shared" si="37"/>
         <v>0.32550587949117182</v>
       </c>
@@ -35610,7 +35613,7 @@
         <f t="shared" si="38"/>
         <v>55.635683999999998</v>
       </c>
-      <c r="N128" s="207">
+      <c r="N128" s="376">
         <f t="shared" si="39"/>
         <v>6.6524308811387298</v>
       </c>
@@ -35708,7 +35711,7 @@
         <f t="shared" si="36"/>
         <v>6.8134225356066957E-3</v>
       </c>
-      <c r="L129" s="289">
+      <c r="L129" s="375">
         <f t="shared" si="37"/>
         <v>0.2242377341861316</v>
       </c>
@@ -35716,7 +35719,7 @@
         <f t="shared" si="38"/>
         <v>131.4764758</v>
       </c>
-      <c r="N129" s="207">
+      <c r="N129" s="376">
         <f t="shared" si="39"/>
         <v>15.720812702782785</v>
       </c>
@@ -35814,7 +35817,7 @@
         <f t="shared" si="36"/>
         <v>4.8038773561064403E-2</v>
       </c>
-      <c r="L130" s="289">
+      <c r="L130" s="375">
         <f t="shared" si="37"/>
         <v>1.5810124324624075</v>
       </c>
@@ -35822,7 +35825,7 @@
         <f t="shared" si="38"/>
         <v>3.9177306000000001</v>
       </c>
-      <c r="N130" s="207">
+      <c r="N130" s="376">
         <f t="shared" si="39"/>
         <v>0.46844812813700948</v>
       </c>
@@ -35912,7 +35915,7 @@
     </row>
     <row r="132" spans="1:31" ht="17" customHeight="1">
       <c r="A132" s="172" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B132" s="293"/>
       <c r="C132" s="171"/>
@@ -35929,7 +35932,7 @@
       <c r="N132" s="171"/>
       <c r="O132" s="171"/>
       <c r="Q132" s="172" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="R132" s="293"/>
       <c r="S132" s="171"/>
@@ -35957,14 +35960,14 @@
       <c r="H133" s="170"/>
       <c r="I133" s="171"/>
       <c r="J133" s="171"/>
-      <c r="K133" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="L133" s="375"/>
-      <c r="M133" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="N133" s="377"/>
+      <c r="K133" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="L133" s="383"/>
+      <c r="M133" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="N133" s="385"/>
       <c r="O133" s="171"/>
       <c r="Q133" s="354"/>
       <c r="R133" s="294"/>
@@ -35975,14 +35978,14 @@
       <c r="W133" s="170"/>
       <c r="X133" s="172"/>
       <c r="Y133" s="171"/>
-      <c r="AA133" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB133" s="375"/>
-      <c r="AC133" s="376" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD133" s="377"/>
+      <c r="AA133" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB133" s="383"/>
+      <c r="AC133" s="384" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD133" s="385"/>
       <c r="AE133" s="171"/>
     </row>
     <row r="134" spans="1:31" ht="60" customHeight="1">
@@ -36000,7 +36003,7 @@
         <v>48</v>
       </c>
       <c r="F134" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G134" s="175" t="s">
         <v>0</v>
@@ -36012,7 +36015,7 @@
         <v>78</v>
       </c>
       <c r="J134" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K134" s="285" t="s">
         <v>127</v>
@@ -36021,7 +36024,7 @@
         <v>53</v>
       </c>
       <c r="M134" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="N134" s="281" t="s">
         <v>53</v>
@@ -36041,7 +36044,7 @@
         <v>48</v>
       </c>
       <c r="V134" s="279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="W134" s="175" t="s">
         <v>0</v>
@@ -36053,7 +36056,7 @@
         <v>78</v>
       </c>
       <c r="Z134" s="305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AA134" s="285" t="s">
         <v>127</v>
@@ -36062,7 +36065,7 @@
         <v>53</v>
       </c>
       <c r="AC134" s="282" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AD134" s="281" t="s">
         <v>53</v>
@@ -36165,7 +36168,7 @@
       <c r="I137" s="179"/>
       <c r="J137" s="287"/>
       <c r="K137" s="288"/>
-      <c r="L137" s="289"/>
+      <c r="L137" s="375"/>
       <c r="M137" s="302"/>
       <c r="N137" s="207"/>
       <c r="O137" s="171"/>
@@ -36229,7 +36232,7 @@
         <f>I138/E138</f>
         <v>4.0629478271382795E-2</v>
       </c>
-      <c r="L138" s="289">
+      <c r="L138" s="375">
         <f>+K138/$K$113</f>
         <v>1.3371638264216787</v>
       </c>
@@ -36237,7 +36240,7 @@
         <f>+I138*1</f>
         <v>12.87</v>
       </c>
-      <c r="N138" s="207">
+      <c r="N138" s="376">
         <f>+M138/$M$113</f>
         <v>1.5388825890997486</v>
       </c>
@@ -36311,9 +36314,9 @@
       <c r="I139" s="179"/>
       <c r="J139" s="287"/>
       <c r="K139" s="288"/>
-      <c r="L139" s="289"/>
+      <c r="L139" s="375"/>
       <c r="M139" s="302"/>
-      <c r="N139" s="207"/>
+      <c r="N139" s="376"/>
       <c r="O139" s="171"/>
       <c r="Q139" s="286" t="s">
         <v>27</v>
@@ -36344,9 +36347,9 @@
       </c>
       <c r="J140" s="287"/>
       <c r="K140" s="288"/>
-      <c r="L140" s="289"/>
+      <c r="L140" s="375"/>
       <c r="M140" s="302"/>
-      <c r="N140" s="207"/>
+      <c r="N140" s="376"/>
       <c r="O140" s="171"/>
       <c r="Q140" s="286" t="s">
         <v>28</v>
@@ -36401,7 +36404,7 @@
         <f t="shared" ref="K141:K146" si="54">I141/E141</f>
         <v>1.0138968268685255E-2</v>
       </c>
-      <c r="L141" s="289">
+      <c r="L141" s="375">
         <f t="shared" ref="L141:L146" si="55">+K141/$K$113</f>
         <v>0.33368534824805512</v>
       </c>
@@ -36409,7 +36412,7 @@
         <f t="shared" ref="M141:M146" si="56">+I141*1</f>
         <v>48.622655649999999</v>
       </c>
-      <c r="N141" s="207">
+      <c r="N141" s="376">
         <f t="shared" ref="N141:N146" si="57">+M141/$M$113</f>
         <v>5.813873987224361</v>
       </c>
@@ -36507,7 +36510,7 @@
         <f t="shared" si="54"/>
         <v>2.9945067963287077E-2</v>
       </c>
-      <c r="L142" s="289">
+      <c r="L142" s="375">
         <f t="shared" si="55"/>
         <v>0.98552734034119283</v>
       </c>
@@ -36515,7 +36518,7 @@
         <f t="shared" si="56"/>
         <v>9.5054999999999996</v>
       </c>
-      <c r="N142" s="207">
+      <c r="N142" s="376">
         <f t="shared" si="57"/>
         <v>1.1365849612033925</v>
       </c>
@@ -36613,7 +36616,7 @@
         <f t="shared" si="54"/>
         <v>2.1332744100740895E-2</v>
       </c>
-      <c r="L143" s="289">
+      <c r="L143" s="375">
         <f t="shared" si="55"/>
         <v>0.70208565168588244</v>
       </c>
@@ -36621,7 +36624,7 @@
         <f t="shared" si="56"/>
         <v>19.132309150000001</v>
       </c>
-      <c r="N143" s="207">
+      <c r="N143" s="376">
         <f t="shared" si="57"/>
         <v>2.2876750147792397</v>
       </c>
@@ -36719,7 +36722,7 @@
         <f t="shared" si="54"/>
         <v>8.2357548992996917E-3</v>
       </c>
-      <c r="L144" s="289">
+      <c r="L144" s="375">
         <f t="shared" si="55"/>
         <v>0.27104836200604893</v>
       </c>
@@ -36727,7 +36730,7 @@
         <f t="shared" si="56"/>
         <v>74.471279999999993</v>
       </c>
-      <c r="N144" s="207">
+      <c r="N144" s="376">
         <f t="shared" si="57"/>
         <v>8.9046275198113687</v>
       </c>
@@ -36825,7 +36828,7 @@
         <f t="shared" si="54"/>
         <v>3.823921017530488E-3</v>
       </c>
-      <c r="L145" s="289">
+      <c r="L145" s="375">
         <f t="shared" si="55"/>
         <v>0.12584972973519115</v>
       </c>
@@ -36833,7 +36836,7 @@
         <f t="shared" si="56"/>
         <v>256.86959999999999</v>
       </c>
-      <c r="N145" s="207">
+      <c r="N145" s="376">
         <f t="shared" si="57"/>
         <v>30.71423116620177</v>
       </c>
@@ -36931,7 +36934,7 @@
         <f t="shared" si="54"/>
         <v>1.8290446925811735E-2</v>
       </c>
-      <c r="L146" s="289">
+      <c r="L146" s="375">
         <f t="shared" si="55"/>
         <v>0.60196008018905489</v>
       </c>
@@ -36939,7 +36942,7 @@
         <f t="shared" si="56"/>
         <v>13.7849048</v>
       </c>
-      <c r="N146" s="207">
+      <c r="N146" s="376">
         <f t="shared" si="57"/>
         <v>1.6482789424333764</v>
       </c>
@@ -37051,7 +37054,7 @@
     </row>
     <row r="151" spans="1:31" s="75" customFormat="1" ht="17" customHeight="1">
       <c r="A151" s="18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -37060,42 +37063,42 @@
     </row>
     <row r="152" spans="1:31" ht="17" customHeight="1">
       <c r="A152" s="172" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
       <c r="D152" s="30"/>
       <c r="E152" s="191"/>
       <c r="P152" s="172" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="71" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B153" s="280" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C153" s="346" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="171"/>
       <c r="Q153" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="R153" s="280" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="S153" s="346" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="T153" s="85"/>
     </row>
     <row r="154" spans="1:31" ht="17" customHeight="1">
       <c r="A154" s="276" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B154" s="30">
         <f>+AVERAGE(L103:L107)</f>
@@ -37107,9 +37110,12 @@
       <c r="D154" s="85"/>
       <c r="E154" s="171"/>
       <c r="Q154" s="276" t="s">
-        <v>411</v>
-      </c>
-      <c r="R154" s="30"/>
+        <v>404</v>
+      </c>
+      <c r="R154" s="30">
+        <f>+AVERAGE(AB103:AB107)</f>
+        <v>0.80144435830319372</v>
+      </c>
       <c r="S154" s="30">
         <v>0.34620000000000001</v>
       </c>
@@ -37117,7 +37123,7 @@
     </row>
     <row r="155" spans="1:31" ht="17" customHeight="1">
       <c r="A155" s="276" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B155" s="30">
         <f>+AVERAGE(L103:L105)</f>
@@ -37129,9 +37135,12 @@
       <c r="D155" s="85"/>
       <c r="E155" s="177"/>
       <c r="Q155" s="276" t="s">
-        <v>412</v>
-      </c>
-      <c r="R155" s="30"/>
+        <v>405</v>
+      </c>
+      <c r="R155" s="30">
+        <f>+AVERAGE(AB103:AB105)</f>
+        <v>0.94617326119318201</v>
+      </c>
       <c r="S155">
         <v>0.4017</v>
       </c>
@@ -37139,7 +37148,7 @@
     </row>
     <row r="156" spans="1:31" ht="17" customHeight="1">
       <c r="A156" s="276" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B156" s="30">
         <f>+AVERAGE(L106:L107)</f>
@@ -37151,9 +37160,12 @@
       <c r="D156" s="34"/>
       <c r="E156" s="177"/>
       <c r="Q156" s="276" t="s">
-        <v>413</v>
-      </c>
-      <c r="R156" s="30"/>
+        <v>406</v>
+      </c>
+      <c r="R156" s="30">
+        <f>+AVERAGE(AB106:AB107)</f>
+        <v>0.58435100396821127</v>
+      </c>
       <c r="S156" s="30" t="s">
         <v>54</v>
       </c>
@@ -37161,7 +37173,7 @@
     </row>
     <row r="157" spans="1:31" ht="17" customHeight="1">
       <c r="A157" s="276" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B157" s="30">
         <f>+AVERAGE(L108:L110)</f>
@@ -37173,9 +37185,12 @@
       <c r="D157" s="34"/>
       <c r="E157" s="177"/>
       <c r="Q157" s="276" t="s">
-        <v>414</v>
-      </c>
-      <c r="R157" s="30"/>
+        <v>407</v>
+      </c>
+      <c r="R157" s="30">
+        <f>+AVERAGE(AB108:AB110)</f>
+        <v>0.82231131141376756</v>
+      </c>
       <c r="S157" s="30">
         <v>0.71</v>
       </c>
@@ -37183,7 +37198,7 @@
     </row>
     <row r="158" spans="1:31" ht="17" customHeight="1">
       <c r="A158" s="276" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B158" s="30">
         <f>+AVERAGE(L111:L113)</f>
@@ -37195,9 +37210,12 @@
       <c r="D158" s="92"/>
       <c r="E158" s="177"/>
       <c r="Q158" s="276" t="s">
-        <v>415</v>
-      </c>
-      <c r="R158" s="30"/>
+        <v>408</v>
+      </c>
+      <c r="R158" s="30">
+        <f>+AVERAGE(AB111:AB113)</f>
+        <v>0.49802162982463694</v>
+      </c>
       <c r="S158" s="30">
         <v>0.2316</v>
       </c>
@@ -37217,28 +37235,28 @@
     <row r="160" spans="1:31" ht="57" customHeight="1">
       <c r="A160" s="13"/>
       <c r="B160" s="348" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C160" s="348" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D160" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q160" s="13"/>
       <c r="R160" s="348" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="S160" s="348" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="T160" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="17" customHeight="1">
       <c r="A161" s="276" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B161">
         <v>0.25030000000000002</v>
@@ -37247,10 +37265,10 @@
         <v>0.67620000000000002</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q161" s="276" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="R161">
         <v>0.55759999999999998</v>
@@ -37259,12 +37277,12 @@
         <v>0.9466</v>
       </c>
       <c r="T161" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="17" customHeight="1">
       <c r="A162" s="276" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B162">
         <v>0.68840000000000001</v>
@@ -37273,10 +37291,10 @@
         <v>0.37969999999999998</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q162" s="276" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="R162">
         <v>0.6744</v>
@@ -37285,12 +37303,12 @@
         <v>0.37459999999999999</v>
       </c>
       <c r="T162" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="17" customHeight="1">
       <c r="A163" s="276" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B163">
         <v>0.55659999999999998</v>
@@ -37299,10 +37317,10 @@
         <v>0.38890000000000002</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q163" s="276" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="R163">
         <v>0.89370000000000005</v>
@@ -37311,12 +37329,12 @@
         <v>0.43959999999999999</v>
       </c>
       <c r="T163" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="17" customHeight="1">
       <c r="A164" s="276" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B164">
         <v>0.50060000000000004</v>
@@ -37325,10 +37343,10 @@
         <v>0.97860000000000003</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q164" s="276" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="R164">
         <v>0.81559999999999999</v>
@@ -37337,12 +37355,12 @@
         <v>0.26269999999999999</v>
       </c>
       <c r="T164" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="17" customHeight="1">
       <c r="A165" s="276" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B165">
         <v>0.92810000000000004</v>
@@ -37351,10 +37369,10 @@
         <v>0.2631</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q165" s="276" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="R165">
         <v>0.92030000000000001</v>
@@ -37363,7 +37381,7 @@
         <v>0.75180000000000002</v>
       </c>
       <c r="T165" s="30" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -37382,56 +37400,58 @@
     <mergeCell ref="AC117:AD117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD9FC9-C951-4945-9AB5-1A818DEA7BDB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="360"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="117" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="2:8">
       <c r="B2" s="172" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="360"/>
+    <row r="4" spans="2:8">
       <c r="B4" s="360"/>
-      <c r="C4" s="378" t="s">
-        <v>582</v>
-      </c>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378" t="s">
-        <v>583</v>
-      </c>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378" t="s">
-        <v>584</v>
-      </c>
-      <c r="H4" s="378"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="360"/>
+      <c r="C4" s="386" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="386"/>
+      <c r="E4" s="386" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" s="386"/>
+      <c r="G4" s="386" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" s="386"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="360"/>
       <c r="C5" s="114" t="s">
         <v>22</v>
@@ -37452,32 +37472,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="360"/>
+    <row r="6" spans="2:8">
       <c r="B6" s="360"/>
       <c r="C6" s="40" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19">
-      <c r="A7" s="360"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="19">
       <c r="B7" s="360" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C7" s="108">
         <v>998.2</v>
@@ -37498,9 +37516,9 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19">
+    <row r="8" spans="2:8" ht="19">
       <c r="B8" s="360" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C8" s="108">
         <v>1.0020000000000001E-3</v>
@@ -37521,9 +37539,9 @@
         <v>1.09E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19">
+    <row r="9" spans="2:8" ht="19">
       <c r="B9" s="360" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C9" s="108">
         <v>1</v>
@@ -37546,9 +37564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="360" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C10" s="108">
         <v>4.88</v>
@@ -37569,9 +37587,9 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19">
+    <row r="11" spans="2:8" ht="19">
       <c r="B11" s="360" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C11" s="30">
         <v>1.7833341520512</v>
@@ -37592,9 +37610,9 @@
         <v>0.26852999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="2:8">
       <c r="B12" s="114" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C12" s="366">
         <f t="shared" ref="C12:H12" si="0">+C7*C9^2*C10/C8</f>
@@ -37621,9 +37639,9 @@
         <v>2680045.8715596329</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="2:8">
       <c r="B13" s="360" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C13" s="56">
         <v>35.060296000000001</v>
@@ -37644,9 +37662,9 @@
         <v>7.368473668</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="2:8" ht="18">
       <c r="B14" s="40" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C14" s="40">
         <v>5.3550000000000004E-3</v>
@@ -37667,9 +37685,9 @@
         <v>5.0179999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19">
+    <row r="15" spans="2:8" ht="19">
       <c r="B15" s="360" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C15" s="110">
         <f>+C13/C11</f>
@@ -37696,9 +37714,9 @@
         <v>27.440038982609021</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="2:8">
       <c r="B16" s="40" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C16" s="364">
         <f>+C15/$D$15</f>
@@ -37731,8 +37749,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -38238,8 +38256,8 @@
       <c r="N20" s="34"/>
       <c r="O20" s="46"/>
       <c r="P20" s="26"/>
-      <c r="Q20" s="379"/>
-      <c r="R20" s="380"/>
+      <c r="Q20" s="387"/>
+      <c r="R20" s="388"/>
       <c r="S20" s="355"/>
     </row>
     <row r="21" spans="1:19" ht="51">
@@ -38823,8 +38841,8 @@
       </c>
       <c r="O5" s="113"/>
       <c r="P5" s="101"/>
-      <c r="Q5" s="381"/>
-      <c r="R5" s="382"/>
+      <c r="Q5" s="389"/>
+      <c r="R5" s="390"/>
     </row>
     <row r="6" spans="1:19" ht="51">
       <c r="B6" s="229"/>
@@ -41167,7 +41185,7 @@
     </row>
     <row r="98" spans="1:24" ht="17" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B98" s="34"/>
       <c r="C98" s="108"/>
@@ -41294,10 +41312,10 @@
       <c r="L103" s="34"/>
       <c r="M103" s="34"/>
       <c r="N103" s="330"/>
-      <c r="O103" s="383"/>
+      <c r="O103" s="369"/>
       <c r="P103" s="330"/>
-      <c r="Q103" s="384"/>
-      <c r="R103" s="384"/>
+      <c r="Q103" s="370"/>
+      <c r="R103" s="370"/>
       <c r="S103" s="178"/>
       <c r="T103" s="171"/>
       <c r="U103" s="171"/>
@@ -41319,10 +41337,10 @@
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
       <c r="N104" s="330"/>
-      <c r="O104" s="383"/>
+      <c r="O104" s="369"/>
       <c r="P104" s="330"/>
-      <c r="Q104" s="384"/>
-      <c r="R104" s="384"/>
+      <c r="Q104" s="370"/>
+      <c r="R104" s="370"/>
       <c r="S104" s="178"/>
       <c r="T104" s="171"/>
       <c r="U104" s="171"/>
@@ -41366,8 +41384,8 @@
       <c r="N105" s="368"/>
       <c r="O105" s="368"/>
       <c r="P105" s="368"/>
-      <c r="Q105" s="385"/>
-      <c r="R105" s="385"/>
+      <c r="Q105" s="371"/>
+      <c r="R105" s="371"/>
       <c r="S105" s="178"/>
       <c r="T105" s="171"/>
       <c r="U105" s="171"/>
@@ -41416,8 +41434,8 @@
         <v>1</v>
       </c>
       <c r="M106" s="34"/>
-      <c r="N106" s="386"/>
-      <c r="O106" s="387"/>
+      <c r="N106" s="372"/>
+      <c r="O106" s="373"/>
       <c r="P106" s="320"/>
       <c r="Q106" s="98"/>
       <c r="R106" s="33"/>
@@ -41469,8 +41487,8 @@
         <v>0.53724119841135465</v>
       </c>
       <c r="M107" s="34"/>
-      <c r="N107" s="386"/>
-      <c r="O107" s="387"/>
+      <c r="N107" s="372"/>
+      <c r="O107" s="373"/>
       <c r="P107" s="320"/>
       <c r="Q107" s="98"/>
       <c r="R107" s="33"/>
@@ -41522,9 +41540,9 @@
         <v>1.027987743653157</v>
       </c>
       <c r="M108" s="34"/>
-      <c r="N108" s="386"/>
-      <c r="O108" s="387"/>
-      <c r="P108" s="388"/>
+      <c r="N108" s="372"/>
+      <c r="O108" s="373"/>
+      <c r="P108" s="374"/>
       <c r="Q108" s="98"/>
       <c r="R108" s="33"/>
       <c r="S108" s="178"/>
@@ -41575,9 +41593,9 @@
         <v>0.47450785645123178</v>
       </c>
       <c r="M109" s="34"/>
-      <c r="N109" s="386"/>
-      <c r="O109" s="387"/>
-      <c r="P109" s="388"/>
+      <c r="N109" s="372"/>
+      <c r="O109" s="373"/>
+      <c r="P109" s="374"/>
       <c r="Q109" s="98"/>
       <c r="R109" s="33"/>
       <c r="S109" s="178"/>
@@ -41628,9 +41646,9 @@
         <v>0.60675015056354653</v>
       </c>
       <c r="M110" s="48"/>
-      <c r="N110" s="386"/>
-      <c r="O110" s="387"/>
-      <c r="P110" s="388"/>
+      <c r="N110" s="372"/>
+      <c r="O110" s="373"/>
+      <c r="P110" s="374"/>
       <c r="Q110" s="98"/>
       <c r="R110" s="33"/>
       <c r="S110" s="178"/>
@@ -41681,9 +41699,9 @@
         <v>0.20803891579307501</v>
       </c>
       <c r="M111" s="48"/>
-      <c r="N111" s="386"/>
-      <c r="O111" s="387"/>
-      <c r="P111" s="388"/>
+      <c r="N111" s="372"/>
+      <c r="O111" s="373"/>
+      <c r="P111" s="374"/>
       <c r="Q111" s="98"/>
       <c r="R111" s="33"/>
       <c r="S111" s="178"/>
@@ -41734,9 +41752,9 @@
         <v>1.0632913630247642</v>
       </c>
       <c r="M112" s="48"/>
-      <c r="N112" s="386"/>
-      <c r="O112" s="387"/>
-      <c r="P112" s="388"/>
+      <c r="N112" s="372"/>
+      <c r="O112" s="373"/>
+      <c r="P112" s="374"/>
       <c r="Q112" s="98"/>
       <c r="R112" s="33"/>
     </row>
@@ -41784,9 +41802,9 @@
         <v>0.51192538875503102</v>
       </c>
       <c r="M113" s="48"/>
-      <c r="N113" s="386"/>
-      <c r="O113" s="387"/>
-      <c r="P113" s="388"/>
+      <c r="N113" s="372"/>
+      <c r="O113" s="373"/>
+      <c r="P113" s="374"/>
       <c r="Q113" s="98"/>
       <c r="R113" s="33"/>
     </row>
@@ -41834,8 +41852,8 @@
         <v>0.61687673079439709</v>
       </c>
       <c r="M114" s="48"/>
-      <c r="N114" s="386"/>
-      <c r="O114" s="387"/>
+      <c r="N114" s="372"/>
+      <c r="O114" s="373"/>
       <c r="P114" s="320"/>
       <c r="Q114" s="98"/>
       <c r="R114" s="33"/>
@@ -41887,9 +41905,9 @@
         <v>0.37019708936737677</v>
       </c>
       <c r="M115" s="108"/>
-      <c r="N115" s="386"/>
-      <c r="O115" s="387"/>
-      <c r="P115" s="388"/>
+      <c r="N115" s="372"/>
+      <c r="O115" s="373"/>
+      <c r="P115" s="374"/>
       <c r="Q115" s="98"/>
       <c r="R115" s="33"/>
       <c r="S115" s="178"/>
@@ -41940,9 +41958,9 @@
         <v>0.39234197718832609</v>
       </c>
       <c r="M116" s="108"/>
-      <c r="N116" s="386"/>
-      <c r="O116" s="387"/>
-      <c r="P116" s="388"/>
+      <c r="N116" s="372"/>
+      <c r="O116" s="373"/>
+      <c r="P116" s="374"/>
       <c r="Q116" s="98"/>
       <c r="R116" s="33"/>
       <c r="S116" s="178"/>
@@ -41993,8 +42011,8 @@
         <v>0.55196969699073217</v>
       </c>
       <c r="M117" s="48"/>
-      <c r="N117" s="386"/>
-      <c r="O117" s="387"/>
+      <c r="N117" s="372"/>
+      <c r="O117" s="373"/>
       <c r="P117" s="320"/>
       <c r="Q117" s="98"/>
       <c r="R117" s="33"/>
@@ -42046,8 +42064,8 @@
         <v>0.25577372016888472</v>
       </c>
       <c r="M118" s="48"/>
-      <c r="N118" s="386"/>
-      <c r="O118" s="387"/>
+      <c r="N118" s="372"/>
+      <c r="O118" s="373"/>
       <c r="P118" s="320"/>
       <c r="Q118" s="98"/>
       <c r="R118" s="33"/>
@@ -42120,7 +42138,7 @@
     </row>
     <row r="123" spans="1:24" s="75" customFormat="1" ht="17" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -42136,13 +42154,13 @@
     </row>
     <row r="125" spans="1:24" ht="104" customHeight="1">
       <c r="A125" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B125" s="280" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C125" s="346" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D125" s="329"/>
       <c r="E125" s="329"/>
@@ -42154,7 +42172,7 @@
     </row>
     <row r="126" spans="1:24" ht="17" customHeight="1">
       <c r="A126" s="276" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B126" s="30">
         <f>+AVERAGE(L106:L108)</f>
@@ -42173,7 +42191,7 @@
     </row>
     <row r="127" spans="1:24" ht="17" customHeight="1">
       <c r="A127" s="276" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B127" s="30">
         <f>+AVERAGE(L109:L118)</f>
@@ -42192,7 +42210,7 @@
     </row>
     <row r="128" spans="1:24" ht="17" customHeight="1">
       <c r="A128" s="276" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B128" s="30">
         <f>+AVERAGE(L106:L113,L118)</f>
@@ -42206,7 +42224,7 @@
     </row>
     <row r="129" spans="1:24" ht="17" customHeight="1">
       <c r="A129" s="276" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B129" s="30">
         <v>0.52</v>
@@ -42219,7 +42237,7 @@
     </row>
     <row r="130" spans="1:24" ht="17" customHeight="1">
       <c r="A130" s="276" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B130" s="30">
         <f>+AVERAGE(L114:L117)</f>
@@ -42233,7 +42251,7 @@
     </row>
     <row r="131" spans="1:24" ht="17" customHeight="1">
       <c r="A131" s="333" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B131" s="30">
         <f>+AVERAGE(L109:L111)</f>
@@ -42274,7 +42292,7 @@
     </row>
     <row r="133" spans="1:24" ht="17" customHeight="1">
       <c r="A133" s="333" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B133" s="30">
         <f>+AVERAGE(L114:L117)</f>
@@ -42338,16 +42356,16 @@
     </row>
     <row r="136" spans="1:24" ht="32" customHeight="1">
       <c r="A136" s="40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B136" s="348" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C136" s="348" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I136" s="108"/>
       <c r="J136" s="108"/>
@@ -42368,7 +42386,7 @@
     </row>
     <row r="137" spans="1:24" ht="17" customHeight="1">
       <c r="A137" s="116" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B137">
         <v>0.62819999999999998</v>
@@ -42377,7 +42395,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D137" s="347" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I137" s="108"/>
       <c r="J137" s="108"/>
@@ -42398,7 +42416,7 @@
     </row>
     <row r="138" spans="1:24" ht="17" customHeight="1">
       <c r="A138" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B138">
         <v>0.1351</v>
@@ -42407,7 +42425,7 @@
         <v>0.39929999999999999</v>
       </c>
       <c r="D138" s="347" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I138" s="108"/>
       <c r="J138" s="108"/>
@@ -42428,7 +42446,7 @@
     </row>
     <row r="139" spans="1:24" ht="17" customHeight="1">
       <c r="A139" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B139">
         <v>0.16209999999999999</v>
@@ -42437,7 +42455,7 @@
         <v>0.82389999999999997</v>
       </c>
       <c r="D139" s="347" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I139" s="108"/>
       <c r="J139" s="108"/>
@@ -42458,7 +42476,7 @@
     </row>
     <row r="140" spans="1:24" ht="17" customHeight="1">
       <c r="A140" s="116" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B140">
         <v>0.51129999999999998</v>
@@ -42467,7 +42485,7 @@
         <v>0.94969999999999999</v>
       </c>
       <c r="D140" s="347" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I140" s="108"/>
       <c r="J140" s="108"/>
@@ -42487,7 +42505,7 @@
     </row>
     <row r="141" spans="1:24" ht="17" customHeight="1">
       <c r="A141" s="116" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B141">
         <v>0.61240000000000006</v>
@@ -42496,7 +42514,7 @@
         <v>0.8861</v>
       </c>
       <c r="D141" s="347" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I141" s="108"/>
       <c r="J141" s="108"/>
@@ -42535,7 +42553,7 @@
     </row>
     <row r="144" spans="1:24" ht="17" customHeight="1">
       <c r="A144" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="P144" s="173"/>
       <c r="Q144" s="187"/>
@@ -44117,7 +44135,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H40"/>
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44129,7 +44147,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="307" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="60"/>
@@ -44151,7 +44169,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="308" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E2" s="30"/>
       <c r="G2" s="108"/>
@@ -44162,16 +44180,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="314" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C3" s="99">
         <v>3.35</v>
       </c>
       <c r="D3" s="334" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="315"/>
       <c r="G3" s="108"/>
@@ -44182,16 +44200,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="316" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="99">
         <v>4.88</v>
       </c>
       <c r="D4" s="334" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="315"/>
       <c r="G4" s="108"/>
@@ -44202,16 +44220,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="316" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C5" s="94">
         <v>4.2</v>
       </c>
       <c r="D5" s="334" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" s="315"/>
       <c r="G5" s="108"/>
@@ -44222,16 +44240,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="316" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C6" s="317">
         <v>8.06</v>
       </c>
       <c r="D6" s="335" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E6" s="319"/>
       <c r="G6" s="108"/>
@@ -44242,16 +44260,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="314" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C7" s="111">
         <v>10.86</v>
       </c>
       <c r="D7" s="335" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E7" s="315"/>
       <c r="G7" s="108"/>
@@ -44271,7 +44289,7 @@
         <v>2.9</v>
       </c>
       <c r="D8" s="336" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E8" s="315"/>
       <c r="G8" s="108"/>
@@ -44291,7 +44309,7 @@
         <v>3.5</v>
       </c>
       <c r="D9" s="336" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E9" s="315"/>
       <c r="G9" s="108"/>
@@ -44311,7 +44329,7 @@
         <v>3.54</v>
       </c>
       <c r="D10" s="334" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E10" s="321"/>
       <c r="G10" s="108"/>
@@ -44325,13 +44343,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C11" s="33">
         <v>2.786</v>
       </c>
       <c r="D11" s="334" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" s="315"/>
       <c r="G11" s="108"/>
@@ -44370,7 +44388,7 @@
         <v>2.76</v>
       </c>
       <c r="D13" s="336" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E13" s="321"/>
       <c r="G13" s="108"/>
@@ -44390,7 +44408,7 @@
         <v>3.004</v>
       </c>
       <c r="D14" s="336" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E14" s="321"/>
       <c r="G14" s="108"/>
@@ -44430,7 +44448,7 @@
         <v>4.7</v>
       </c>
       <c r="D16" s="337" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E16" s="321"/>
       <c r="G16" s="108"/>
@@ -44451,7 +44469,7 @@
         <v>5.17</v>
       </c>
       <c r="D17" s="334" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E17" s="321"/>
       <c r="G17" s="108"/>
@@ -44493,7 +44511,7 @@
         <v>10.66</v>
       </c>
       <c r="D19" s="336" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E19" s="321"/>
       <c r="G19" s="108"/>
@@ -44513,7 +44531,7 @@
         <v>10.06</v>
       </c>
       <c r="D20" s="336" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E20" s="315"/>
       <c r="G20" s="108"/>
@@ -44552,7 +44570,7 @@
         <v>11.3</v>
       </c>
       <c r="D22" s="339" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E22" s="200"/>
       <c r="G22" s="108"/>
@@ -44572,7 +44590,7 @@
         <v>11.2</v>
       </c>
       <c r="D23" s="338" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E23" s="200"/>
       <c r="F23" s="201"/>
@@ -44584,16 +44602,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="C24" s="34">
         <v>10</v>
       </c>
       <c r="D24" s="335" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E24" s="108"/>
       <c r="F24" s="108"/>
@@ -44608,13 +44626,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="312" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C25" s="34">
         <v>2.5</v>
       </c>
       <c r="D25" s="318" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E25" s="200"/>
       <c r="G25" s="108"/>
@@ -44628,13 +44646,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="312" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C26" s="34">
         <v>4.21</v>
       </c>
       <c r="D26" s="318" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E26" s="200"/>
       <c r="G26" s="108"/>
@@ -44648,13 +44666,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="312" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C27" s="34">
         <v>7.63</v>
       </c>
       <c r="D27" s="318" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E27" s="200"/>
       <c r="G27" s="108"/>
@@ -44678,7 +44696,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="40" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B31" s="108"/>
       <c r="C31" s="108"/>
@@ -44711,16 +44729,16 @@
     <row r="33" spans="1:11">
       <c r="A33" s="309"/>
       <c r="C33" s="44" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F33" s="308" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="108"/>
@@ -44730,7 +44748,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="310" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B34" s="201" t="s">
         <v>54</v>
@@ -44746,7 +44764,7 @@
         <v>7.6</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="108"/>
@@ -44756,7 +44774,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="69" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>54</v>
@@ -44772,7 +44790,7 @@
         <v>13.6</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="108"/>
@@ -44782,7 +44800,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="69" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>54</v>
@@ -44798,7 +44816,7 @@
         <v>2.8499999999999996</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="108"/>
